--- a/Documentação/Documentos/backlog.xlsx
+++ b/Documentação/Documentos/backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/paola_gomes_sptech_school/Documents/Documents/Semes2-sptech/proj. inov/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbiza\OneDrive\Área de Trabalho\TEST\site-institucional\Documentação\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{06F8D99B-B795-4046-80F4-DE849A391B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DB1970B-72E8-4BB9-80EE-A027EB20E8C0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF5CC7A2-20C9-4B50-84C3-828EE88DD87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5115" yWindow="2055" windowWidth="15375" windowHeight="7875" xr2:uid="{20733E76-3990-4A04-89D2-BEA7BDE5C0C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{20733E76-3990-4A04-89D2-BEA7BDE5C0C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
   <si>
     <t>Requisitos</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Classificação</t>
   </si>
   <si>
-    <t>Tela de Cadastro</t>
-  </si>
-  <si>
     <t>Tela de Login</t>
   </si>
   <si>
@@ -71,15 +68,9 @@
     <t>Página contendo a logo e frase de efeito da empresa, além de contar de forma ampla as informações, objetivos e conhecimentos gerais da empresa.</t>
   </si>
   <si>
-    <t>Tela para que o usuário possa realizar o seu cadastro e ter acesso a nossa aplicação.</t>
-  </si>
-  <si>
     <t>Tela onde o usuário digita seu e-mail e senha,podendo acessar o painel de gráficos...</t>
   </si>
   <si>
-    <t>Página onde poderá ser visto, em gráficos, a utilização dos componentes de hardware e software, assim fazendo o acompanhamento da monitoração.</t>
-  </si>
-  <si>
     <t>Nesta tela, o usuário poderá ter acesso as suas informações cadastradas, além de poder editada-las, se necessário.</t>
   </si>
   <si>
@@ -107,9 +98,6 @@
     <t>Responsividade</t>
   </si>
   <si>
-    <t>Aplicação de Monitoração</t>
-  </si>
-  <si>
     <t>Importante</t>
   </si>
   <si>
@@ -125,24 +113,9 @@
     <t>O usuário pode escolher usar o site no modo claro ou no modo escuro.</t>
   </si>
   <si>
-    <t>Página mostrando as principais dúvidas, onde é possível fazer questionamentos e perguntas à nossa empresa.</t>
-  </si>
-  <si>
-    <t>Área para o usuário se deslogar e sair da parte de gerenciamento, voltando para a parte institucional do site.</t>
-  </si>
-  <si>
     <t>Desejável</t>
   </si>
   <si>
-    <t>Núvem</t>
-  </si>
-  <si>
-    <t>O banco de dados será feito no MySQL</t>
-  </si>
-  <si>
-    <t>O site será feito em HTML, CSS, JavaScript e NodeJS.</t>
-  </si>
-  <si>
     <t>A aplicação, será feita em Kotlin, Python e Java.</t>
   </si>
   <si>
@@ -155,19 +128,103 @@
     <t>A interface, tanto do site quanto da aplicação, deverá ser de fácil compreensão, garantindo acessibilidade e praticidade.</t>
   </si>
   <si>
-    <t>Todo o sistema deverá estar na núvem, assim, poderá ser acessado em qualquer lugar que tenha uma rede de dados.</t>
-  </si>
-  <si>
-    <t>O site e a aplicação, deveram se adaptar a diferentes tamanhos e tipos de telas.</t>
-  </si>
-  <si>
-    <t>O tempo de resposta por cada ação, deverá ser de, no máximo, 10 segundos.</t>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Funcionalidade</t>
+  </si>
+  <si>
+    <t>Tamanho</t>
+  </si>
+  <si>
+    <t>Nível de complexidade</t>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>Rastreio</t>
+  </si>
+  <si>
+    <t>Página onde poderá ser visto, em gráficos, a utilização dos componentes de hardware e software, assim fazendo o acompanhamento da monitoração(Dashboard).</t>
+  </si>
+  <si>
+    <t>Botão para o usuário se deslogar e sair da parte de gerenciamento, voltando para a parte institucional do site.</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>O banco de dados será feito no MySQL com as tabelas(Funcionário,)</t>
+  </si>
+  <si>
+    <t>Aplicação de Monitoramento</t>
+  </si>
+  <si>
+    <t>Nuvem</t>
+  </si>
+  <si>
+    <t>O site e a aplicação, deveram se adaptar a telas de celular e computador sem afetar a qualidade de experiência do usuário</t>
+  </si>
+  <si>
+    <t>O tempo de resposta por cada ação, deverá ser de, no máximo, 10 segundos. (Não considerando a conexão internet do usuário.)</t>
+  </si>
+  <si>
+    <t>Página mostrando as principais dúvidas e suas resoluções, onde também é possível fazer solicitações de suporte à nossa empresa.</t>
+  </si>
+  <si>
+    <t>Sistema de suporte</t>
+  </si>
+  <si>
+    <t>Configurar programa de suporte externo para o site.</t>
+  </si>
+  <si>
+    <t>O site e o banco de dados serão armazenados em nuvem para uma maior acessibilidade e segurança de dados.</t>
+  </si>
+  <si>
+    <t>O site será feito em HTML com modulações visuais feitas em CSS e funcionalidades executadas com JavaScript e NodeJS. (detalhadamente escrito na tabela acima)</t>
+  </si>
+  <si>
+    <t>Exa</t>
+  </si>
+  <si>
+    <t>Ta</t>
+  </si>
+  <si>
+    <t>Estratégias fixas</t>
+  </si>
+  <si>
+    <t>Menu de navegação superior, Rolagem vertical, Botões padrões de navbar.</t>
+  </si>
+  <si>
+    <t>Médio</t>
+  </si>
+  <si>
+    <t>Tela de cadastro de funcionários</t>
+  </si>
+  <si>
+    <t>Tela de Cadastro Empresa/ADM</t>
+  </si>
+  <si>
+    <t>Tela para que o usuário possa realizar o cadastro da empresa e do usuário ADM.           (conectado a API)</t>
+  </si>
+  <si>
+    <t>Tela para que o usuário possa realizar o cadastro dos demais usuários que terão controle hierárquico menor no uso do aplicativo.                                                                                (conectado a API)</t>
+  </si>
+  <si>
+    <t>Pequeno</t>
+  </si>
+  <si>
+    <t>Não Funcional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,7 +254,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,13 +269,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD4A4FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -259,14 +310,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -276,8 +335,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF075CAB"/>
       <color rgb="FFD4A4FF"/>
-      <color rgb="FF075CAB"/>
       <color rgb="FF0033CC"/>
     </mruColors>
   </colors>
@@ -589,251 +648,873 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAACF98-1C66-4789-BA04-529D16BEA6E3}">
-  <dimension ref="B2:D23"/>
+  <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="100.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="100.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="10" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="G2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>14</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="2:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="C21" s="9"/>
       <c r="D21" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
+      <c r="E21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
+        <v>17</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>18</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="10">
+        <v>19</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="10">
+        <v>20</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="10">
+        <v>21</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
         <v>22</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="10">
+        <v>23</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003236BA383373F9498A6F9C22979A1745" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0bf3bdad6f269cdb0c97dea15d0c6482">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="58bd19be-68b1-440c-82af-6d4de24fec6c" xmlns:ns4="3ffc9a63-5890-437d-bab6-67d84705b086" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99d51bb674e47819d402eb0a523b7d3f" ns3:_="" ns4:_="">
+    <xsd:import namespace="58bd19be-68b1-440c-82af-6d4de24fec6c"/>
+    <xsd:import namespace="3ffc9a63-5890-437d-bab6-67d84705b086"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="58bd19be-68b1-440c-82af-6d4de24fec6c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="15" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="19" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3ffc9a63-5890-437d-bab6-67d84705b086" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="18" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="58bd19be-68b1-440c-82af-6d4de24fec6c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C33E66-45E6-4074-8D53-095A0939F250}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="58bd19be-68b1-440c-82af-6d4de24fec6c"/>
+    <ds:schemaRef ds:uri="3ffc9a63-5890-437d-bab6-67d84705b086"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD4BB65A-7ADA-4649-93F2-A6878AA75E80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCF05926-E130-461A-A1C5-9C974146D11D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3ffc9a63-5890-437d-bab6-67d84705b086"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="58bd19be-68b1-440c-82af-6d4de24fec6c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentação/Documentos/backlog.xlsx
+++ b/Documentação/Documentos/backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbiza\OneDrive\Área de Trabalho\TEST\site-institucional\Documentação\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF5CC7A2-20C9-4B50-84C3-828EE88DD87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78BD802-A574-4824-96A1-A5BF917D2A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{20733E76-3990-4A04-89D2-BEA7BDE5C0C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="75">
   <si>
     <t>Requisitos</t>
   </si>
@@ -185,12 +185,6 @@
     <t>O site será feito em HTML com modulações visuais feitas em CSS e funcionalidades executadas com JavaScript e NodeJS. (detalhadamente escrito na tabela acima)</t>
   </si>
   <si>
-    <t>Exa</t>
-  </si>
-  <si>
-    <t>Ta</t>
-  </si>
-  <si>
     <t>Estratégias fixas</t>
   </si>
   <si>
@@ -216,6 +210,57 @@
   </si>
   <si>
     <t>Não Funcional</t>
+  </si>
+  <si>
+    <t>Grande</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>Lean UX Canva</t>
+  </si>
+  <si>
+    <t>UST</t>
+  </si>
+  <si>
+    <t>User Stories</t>
+  </si>
+  <si>
+    <t>PPS</t>
+  </si>
+  <si>
+    <t>Proto Persona</t>
+  </si>
+  <si>
+    <t>LUX001</t>
+  </si>
+  <si>
+    <t>PPS001</t>
+  </si>
+  <si>
+    <t>LUX002 / UST001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UST010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LUX001</t>
+  </si>
+  <si>
+    <t>UST008</t>
+  </si>
+  <si>
+    <t>UST006</t>
   </si>
 </sst>
 </file>
@@ -225,7 +270,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,8 +298,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +323,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -326,6 +391,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAACF98-1C66-4789-BA04-529D16BEA6E3}">
-  <dimension ref="B2:J28"/>
+  <dimension ref="B2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="67" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,10 +787,14 @@
         <v>38</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="I3" s="7">
+        <v>5</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
@@ -724,10 +802,10 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -736,10 +814,14 @@
         <v>38</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="I4" s="7">
+        <v>8</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="5" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
@@ -747,10 +829,10 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -759,10 +841,14 @@
         <v>38</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
@@ -782,10 +868,14 @@
         <v>38</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
@@ -805,10 +895,14 @@
         <v>38</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="I7" s="7">
+        <v>13</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
@@ -828,10 +922,14 @@
         <v>38</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="I8" s="7">
+        <v>8</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
@@ -851,10 +949,14 @@
         <v>38</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="I9" s="7">
+        <v>3</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
@@ -874,10 +976,14 @@
         <v>38</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
@@ -897,10 +1003,14 @@
         <v>38</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="I11" s="7">
+        <v>8</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
@@ -920,10 +1030,14 @@
         <v>38</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="I12" s="7">
+        <v>8</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
@@ -943,10 +1057,14 @@
         <v>38</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="I13" s="7">
+        <v>5</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
@@ -954,10 +1072,10 @@
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
@@ -966,10 +1084,14 @@
         <v>38</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
@@ -1022,7 +1144,9 @@
       <c r="B18" s="10">
         <v>13</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="D18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1035,15 +1159,23 @@
       <c r="G18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="7">
+        <v>13</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="19" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>14</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="D19" s="4" t="s">
         <v>14</v>
       </c>
@@ -1056,15 +1188,23 @@
       <c r="G19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="7">
+        <v>8</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="20" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <v>15</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="D20" s="4" t="s">
         <v>40</v>
       </c>
@@ -1077,15 +1217,23 @@
       <c r="G20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="7">
+        <v>13</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>16</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="D21" s="4" t="s">
         <v>15</v>
       </c>
@@ -1096,11 +1244,17 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="7">
+        <v>8</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
@@ -1117,11 +1271,17 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="7">
+        <v>8</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
@@ -1138,17 +1298,25 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="7">
+        <v>5</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
         <v>19</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="D24" s="4" t="s">
         <v>41</v>
       </c>
@@ -1161,15 +1329,23 @@
       <c r="G24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="7">
+        <v>13</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="25" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>20</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="D25" s="4" t="s">
         <v>19</v>
       </c>
@@ -1182,15 +1358,23 @@
       <c r="G25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="7">
+        <v>5</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="26" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
         <v>21</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="D26" s="4" t="s">
         <v>17</v>
       </c>
@@ -1201,20 +1385,24 @@
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="7">
+        <v>8</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
     </row>
     <row r="27" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
         <v>22</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -1227,15 +1415,37 @@
         <v>23</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="D28" s="4"/>
       <c r="E28" s="5"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
+    </row>
+    <row r="32" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentação/Documentos/backlog.xlsx
+++ b/Documentação/Documentos/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbiza\OneDrive\Área de Trabalho\TEST\site-institucional\Documentação\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78BD802-A574-4824-96A1-A5BF917D2A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582353E6-19CA-4DD1-9B38-F234E7FA2F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{20733E76-3990-4A04-89D2-BEA7BDE5C0C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
   <si>
     <t>Requisitos</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Página contendo a logo e frase de efeito da empresa, além de contar de forma ampla as informações, objetivos e conhecimentos gerais da empresa.</t>
   </si>
   <si>
-    <t>Tela onde o usuário digita seu e-mail e senha,podendo acessar o painel de gráficos...</t>
-  </si>
-  <si>
     <t>Nesta tela, o usuário poderá ter acesso as suas informações cadastradas, além de poder editada-las, se necessário.</t>
   </si>
   <si>
@@ -116,12 +113,6 @@
     <t>Desejável</t>
   </si>
   <si>
-    <t>A aplicação, será feita em Kotlin, Python e Java.</t>
-  </si>
-  <si>
-    <t>Deve ser garantido que todo dado cadastrado estejam protegidos e seguros de ataques.</t>
-  </si>
-  <si>
     <t>Todo o sistema deverá estar dispoível a todo e qualquer momento para o usuário utilizar.</t>
   </si>
   <si>
@@ -146,18 +137,12 @@
     <t>Rastreio</t>
   </si>
   <si>
-    <t>Página onde poderá ser visto, em gráficos, a utilização dos componentes de hardware e software, assim fazendo o acompanhamento da monitoração(Dashboard).</t>
-  </si>
-  <si>
     <t>Botão para o usuário se deslogar e sair da parte de gerenciamento, voltando para a parte institucional do site.</t>
   </si>
   <si>
     <t>Funcional</t>
   </si>
   <si>
-    <t>O banco de dados será feito no MySQL com as tabelas(Funcionário,)</t>
-  </si>
-  <si>
     <t>Aplicação de Monitoramento</t>
   </si>
   <si>
@@ -176,12 +161,6 @@
     <t>Sistema de suporte</t>
   </si>
   <si>
-    <t>Configurar programa de suporte externo para o site.</t>
-  </si>
-  <si>
-    <t>O site e o banco de dados serão armazenados em nuvem para uma maior acessibilidade e segurança de dados.</t>
-  </si>
-  <si>
     <t>O site será feito em HTML com modulações visuais feitas em CSS e funcionalidades executadas com JavaScript e NodeJS. (detalhadamente escrito na tabela acima)</t>
   </si>
   <si>
@@ -261,6 +240,45 @@
   </si>
   <si>
     <t>UST006</t>
+  </si>
+  <si>
+    <t>Deve ser garantido que todo dado cadastrado estejam protegidos e seguros de ataques. (Criptografia de senha, Validações de cadastro)</t>
+  </si>
+  <si>
+    <t>O site e o banco de dados serão armazenados na nuvem (AWS) para uma maior acessibilidade e segurança de dados.</t>
+  </si>
+  <si>
+    <t>A aplicação, será feita em Kotlin, Python e Java. (especificar os programas e o que fazem)</t>
+  </si>
+  <si>
+    <t>Página onde poderá ser visto, em gráficos, a utilização dos componentes de hardware e software, assim fazendo o acompanhamento da monitoração(Dashboard). (especificar e quebrar em varios reqs)</t>
+  </si>
+  <si>
+    <t>Programa de suporte externo conectado diretamente ao site.</t>
+  </si>
+  <si>
+    <t>Inserção de dados no banco</t>
+  </si>
+  <si>
+    <t>Requisição de dados no banco</t>
+  </si>
+  <si>
+    <t>O banco de dados será feito no MySQL.</t>
+  </si>
+  <si>
+    <t>O banco armazena as informações da empresa, funcionários e servidores rastreados.</t>
+  </si>
+  <si>
+    <t>O banco fornece os dados de hardware para serem enviados para a dashboard.</t>
+  </si>
+  <si>
+    <t>Aplicação Kotlin</t>
+  </si>
+  <si>
+    <t>Captura os dados (especificar), e insere no banco da dados, tabela (tal)</t>
+  </si>
+  <si>
+    <t>Tela onde o usuário digita seu e-mail e senha, da acesso ao painel de gráficos...</t>
   </si>
 </sst>
 </file>
@@ -307,7 +325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +353,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -399,6 +423,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -722,30 +749,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAACF98-1C66-4789-BA04-529D16BEA6E3}">
-  <dimension ref="B2:J34"/>
+  <dimension ref="B2:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="67" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="100.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="10" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -757,16 +786,16 @@
         <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
@@ -781,19 +810,19 @@
         <v>9</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I3" s="7">
         <v>5</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -802,25 +831,25 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I4" s="7">
         <v>8</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -829,28 +858,28 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I5" s="7">
         <v>8</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>4</v>
       </c>
@@ -859,25 +888,25 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I6" s="7">
         <v>8</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>5</v>
       </c>
@@ -885,23 +914,23 @@
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
+      <c r="E7" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I7" s="7">
         <v>13</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="30" x14ac:dyDescent="0.25">
@@ -913,22 +942,22 @@
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I8" s="7">
         <v>8</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="30" x14ac:dyDescent="0.25">
@@ -940,22 +969,22 @@
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I9" s="7">
         <v>3</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
@@ -967,133 +996,133 @@
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7">
         <v>3</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>9</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I11" s="7">
         <v>8</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>10</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I12" s="7">
         <v>8</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>11</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I13" s="7">
         <v>5</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>12</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="I14" s="7">
         <v>3</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1113,10 +1142,10 @@
     </row>
     <row r="17" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>0</v>
@@ -1128,16 +1157,16 @@
         <v>2</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1145,106 +1174,78 @@
         <v>13</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I18" s="7">
         <v>13</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
         <v>14</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="7">
-        <v>8</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="10">
-        <v>15</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="7">
+      <c r="C21" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="10">
-        <v>16</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>51</v>
@@ -1253,198 +1254,271 @@
         <v>8</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
-        <v>17</v>
-      </c>
-      <c r="C22" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="D22" s="4" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>51</v>
       </c>
       <c r="I22" s="7">
+        <v>13</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="10">
+        <v>16</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="7">
         <v>8</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="10">
+      <c r="J24" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10">
+        <v>17</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="7">
+        <v>8</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="10">
         <v>18</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="7">
-        <v>5</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="10">
-        <v>19</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24" s="7">
-        <v>13</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="10">
-        <v>20</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" s="7">
-        <v>5</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="10">
-        <v>21</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>74</v>
-      </c>
+      <c r="C26" s="9"/>
       <c r="D26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="7">
+        <v>5</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
+        <v>19</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="7">
+        <v>13</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="10">
         <v>20</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="C28" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="7">
+        <v>5</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="10">
+        <v>21</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="7">
+        <v>8</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="10">
+        <v>22</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="10">
+        <v>23</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" s="7">
-        <v>8</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="C36" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="10">
-        <v>22</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="10">
-        <v>23</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="32" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>67</v>
+      <c r="C37" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Documentos/backlog.xlsx
+++ b/Documentação/Documentos/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbiza\OneDrive\Área de Trabalho\TEST\site-institucional\Documentação\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582353E6-19CA-4DD1-9B38-F234E7FA2F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49B4C3A-A1EF-4B1E-9221-724C6AEF9F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{20733E76-3990-4A04-89D2-BEA7BDE5C0C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="82">
   <si>
     <t>Requisitos</t>
   </si>
@@ -179,12 +179,6 @@
     <t>Tela de Cadastro Empresa/ADM</t>
   </si>
   <si>
-    <t>Tela para que o usuário possa realizar o cadastro da empresa e do usuário ADM.           (conectado a API)</t>
-  </si>
-  <si>
-    <t>Tela para que o usuário possa realizar o cadastro dos demais usuários que terão controle hierárquico menor no uso do aplicativo.                                                                                (conectado a API)</t>
-  </si>
-  <si>
     <t>Pequeno</t>
   </si>
   <si>
@@ -279,6 +273,15 @@
   </si>
   <si>
     <t>Tela onde o usuário digita seu e-mail e senha, da acesso ao painel de gráficos...</t>
+  </si>
+  <si>
+    <t>Aplicação Python</t>
+  </si>
+  <si>
+    <t>Tela para que o usuário possa realizar o cadastro dos demais usuários que terão controle hierárquico menor no uso do aplicativo.(conectado a API)</t>
+  </si>
+  <si>
+    <t>Tela para que o usuário possa realizar o cadastro da empresa e do usuário ADM. (conectado a API)</t>
   </si>
 </sst>
 </file>
@@ -749,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAACF98-1C66-4789-BA04-529D16BEA6E3}">
-  <dimension ref="B2:J37"/>
+  <dimension ref="B2:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +825,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -834,7 +837,7 @@
         <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
@@ -849,7 +852,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -861,7 +864,7 @@
         <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
@@ -876,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -888,7 +891,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
@@ -903,7 +906,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="45" x14ac:dyDescent="0.25">
@@ -915,7 +918,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
@@ -924,52 +927,36 @@
         <v>34</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I7" s="7">
         <v>13</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
-        <v>6</v>
-      </c>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="7">
-        <v>8</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
@@ -978,25 +965,25 @@
         <v>34</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I9" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
@@ -1005,52 +992,52 @@
         <v>34</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I10" s="7">
         <v>3</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I11" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>24</v>
@@ -1065,46 +1052,46 @@
         <v>8</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I13" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
@@ -1113,25 +1100,43 @@
         <v>34</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I14" s="7">
+        <v>5</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
+        <v>12</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="7">
         <v>3</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J15" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1140,385 +1145,417 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="10">
+    <row r="19" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
         <v>13</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="7">
+        <v>13</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="7">
-        <v>13</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="8"/>
       <c r="D20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="10">
+    <row r="21" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
         <v>14</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="7">
-        <v>8</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="10">
-        <v>15</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="7">
+        <v>8</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>15</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="7">
+      <c r="H23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="7">
         <v>13</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="J23" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="10">
+      <c r="E25" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="10">
         <v>16</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="C26" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="7">
-        <v>8</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="10">
-        <v>17</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I25" s="7">
-        <v>8</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="10">
-        <v>18</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="7">
+        <v>8</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="7">
-        <v>5</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
-        <v>19</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>65</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C27" s="9"/>
       <c r="D27" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I27" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="10">
-        <v>20</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>66</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C28" s="9"/>
       <c r="D28" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I28" s="7">
         <v>5</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="10">
+        <v>19</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="7">
+        <v>13</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="10">
+        <v>20</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="7">
+        <v>5</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="10">
         <v>21</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="C31" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="7">
+        <v>8</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="7">
-        <v>8</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="10">
+    </row>
+    <row r="32" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="10">
         <v>22</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="10">
+      <c r="C32" s="9"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="10">
         <v>23</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="11" t="s">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1528,6 +1565,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003236BA383373F9498A6F9C22979A1745" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0bf3bdad6f269cdb0c97dea15d0c6482">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="58bd19be-68b1-440c-82af-6d4de24fec6c" xmlns:ns4="3ffc9a63-5890-437d-bab6-67d84705b086" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99d51bb674e47819d402eb0a523b7d3f" ns3:_="" ns4:_="">
     <xsd:import namespace="58bd19be-68b1-440c-82af-6d4de24fec6c"/>
@@ -1742,15 +1788,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1760,6 +1797,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD4BB65A-7ADA-4649-93F2-A6878AA75E80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C33E66-45E6-4074-8D53-095A0939F250}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1774,14 +1819,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD4BB65A-7ADA-4649-93F2-A6878AA75E80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documentação/Documentos/backlog.xlsx
+++ b/Documentação/Documentos/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbiza\OneDrive\Área de Trabalho\TEST\site-institucional\Documentação\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49B4C3A-A1EF-4B1E-9221-724C6AEF9F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C5FF27-8FE1-4C28-BDB5-95BE0961CF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{20733E76-3990-4A04-89D2-BEA7BDE5C0C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="91">
   <si>
     <t>Requisitos</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Tela de Ajuda</t>
   </si>
   <si>
-    <t>Página contendo a logo e frase de efeito da empresa, além de contar de forma ampla as informações, objetivos e conhecimentos gerais da empresa.</t>
-  </si>
-  <si>
     <t>Nesta tela, o usuário poderá ter acesso as suas informações cadastradas, além de poder editada-las, se necessário.</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>Estratégias fixas</t>
   </si>
   <si>
-    <t>Menu de navegação superior, Rolagem vertical, Botões padrões de navbar.</t>
-  </si>
-  <si>
     <t>Médio</t>
   </si>
   <si>
@@ -260,12 +254,6 @@
     <t>O banco de dados será feito no MySQL.</t>
   </si>
   <si>
-    <t>O banco armazena as informações da empresa, funcionários e servidores rastreados.</t>
-  </si>
-  <si>
-    <t>O banco fornece os dados de hardware para serem enviados para a dashboard.</t>
-  </si>
-  <si>
     <t>Aplicação Kotlin</t>
   </si>
   <si>
@@ -282,6 +270,45 @@
   </si>
   <si>
     <t>Tela para que o usuário possa realizar o cadastro da empresa e do usuário ADM. (conectado a API)</t>
+  </si>
+  <si>
+    <t>Plotação de gráficos</t>
+  </si>
+  <si>
+    <t>Gráficos exibidos na dashboard em porcentagem de uso de CPU, uso de memória RAM, uso de REDE e uso de Disco.</t>
+  </si>
+  <si>
+    <t>Exportação dos dados pro gráfico</t>
+  </si>
+  <si>
+    <t>Os dados são transportados do banco para os gráficos da dashboard através do NodeJS.</t>
+  </si>
+  <si>
+    <t>O banco armazena as informações da empresa, funcionários e servidores rastreados. (através de)</t>
+  </si>
+  <si>
+    <t>O banco fornece os dados de hardware para serem enviados para a dashboard.(através de)</t>
+  </si>
+  <si>
+    <t>Página contendo a logo e frase de efeito da empresa, sessão explicativa do projeto TEST, sessão de objetivos e conhecimentos gerais da empresa, sessão de apresentação da equipe, sessão fale conosco.</t>
+  </si>
+  <si>
+    <t>Menu de navegação superior com link para home/cadastro/login/contato/FAQ, Rolagem vertical, e footer com links do site, informações de contato e social media.(devem estar presentes em todas as páginas do site.)</t>
+  </si>
+  <si>
+    <t>revisado</t>
+  </si>
+  <si>
+    <t>Tratamento de dados</t>
+  </si>
+  <si>
+    <t>R  ou banco de dados</t>
+  </si>
+  <si>
+    <t>Extração dos dados cadastrados</t>
+  </si>
+  <si>
+    <t>API em NodeJS que captura os dados das telas de cadastro e os envia ao banco.</t>
   </si>
 </sst>
 </file>
@@ -328,7 +355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +392,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -393,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -430,6 +463,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,15 +789,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAACF98-1C66-4789-BA04-529D16BEA6E3}">
-  <dimension ref="B2:J39"/>
+  <dimension ref="A2:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" customWidth="1"/>
@@ -772,12 +809,15 @@
     <col min="10" max="10" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -789,19 +829,20 @@
         <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
       <c r="B3" s="10">
         <v>1</v>
       </c>
@@ -810,752 +851,820 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I3" s="7">
         <v>5</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I4" s="7">
         <v>8</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10">
-        <v>3</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
       <c r="C5" s="8"/>
       <c r="D5" s="4" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" s="7">
         <v>8</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="4" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" s="7">
         <v>8</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="7">
+        <v>8</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="C8" s="8"/>
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="7">
         <v>13</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
-        <v>6</v>
-      </c>
+      <c r="J8" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
       <c r="C9" s="8"/>
       <c r="D9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>78</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I9" s="7">
         <v>8</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
-        <v>7</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
       <c r="C10" s="8"/>
       <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>47</v>
       </c>
       <c r="I10" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="7">
         <v>8</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I12" s="7">
+        <v>3</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
         <v>8</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10">
-        <v>10</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I13" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I14" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+    <row r="16" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="J20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="10">
+    </row>
+    <row r="21" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
         <v>13</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="7">
+        <v>13</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="10">
+        <v>14</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="7">
+        <v>8</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="10">
+        <v>15</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="D25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="7">
+        <v>13</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="F26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="10">
+        <v>16</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="7">
+        <v>8</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="7">
-        <v>13</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="10">
+    </row>
+    <row r="29" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="10">
+        <v>17</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="E29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="7">
+        <v>8</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="7">
-        <v>8</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="10">
-        <v>15</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="7">
-        <v>13</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="10">
+    </row>
+    <row r="30" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B30" s="10">
+        <v>18</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="7">
-        <v>8</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="10">
-        <v>17</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="7">
-        <v>8</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="10">
-        <v>18</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" s="7">
-        <v>5</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="10">
-        <v>19</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" s="7">
-        <v>13</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="10">
-        <v>20</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F30" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I30" s="7">
         <v>5</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="10">
+        <v>19</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="7">
+        <v>13</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="10">
+        <v>20</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="7">
+        <v>5</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="10">
         <v>21</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="C33" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="7">
+        <v>8</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" s="7">
-        <v>8</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="10">
+    </row>
+    <row r="34" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="10">
         <v>22</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="10">
+      <c r="C34" s="9"/>
+      <c r="D34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="10">
         <v>23</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>56</v>
-      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1565,12 +1674,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="58bd19be-68b1-440c-82af-6d4de24fec6c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1789,17 +1897,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="58bd19be-68b1-440c-82af-6d4de24fec6c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD4BB65A-7ADA-4649-93F2-A6878AA75E80}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCF05926-E130-461A-A1C5-9C974146D11D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3ffc9a63-5890-437d-bab6-67d84705b086"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="58bd19be-68b1-440c-82af-6d4de24fec6c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1824,18 +1942,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCF05926-E130-461A-A1C5-9C974146D11D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD4BB65A-7ADA-4649-93F2-A6878AA75E80}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3ffc9a63-5890-437d-bab6-67d84705b086"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="58bd19be-68b1-440c-82af-6d4de24fec6c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentação/Documentos/backlog.xlsx
+++ b/Documentação/Documentos/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbiza\OneDrive\Área de Trabalho\TEST\site-institucional\Documentação\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C5FF27-8FE1-4C28-BDB5-95BE0961CF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B0E5F0-C40F-45D0-A77D-2FDF5F7AB9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{20733E76-3990-4A04-89D2-BEA7BDE5C0C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="97">
   <si>
     <t>Requisitos</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Tela de Ajuda</t>
   </si>
   <si>
-    <t>Nesta tela, o usuário poderá ter acesso as suas informações cadastradas, além de poder editada-las, se necessário.</t>
-  </si>
-  <si>
     <t>Essencial</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>O tempo de resposta por cada ação, deverá ser de, no máximo, 10 segundos. (Não considerando a conexão internet do usuário.)</t>
   </si>
   <si>
-    <t>Página mostrando as principais dúvidas e suas resoluções, onde também é possível fazer solicitações de suporte à nossa empresa.</t>
-  </si>
-  <si>
     <t>Sistema de suporte</t>
   </si>
   <si>
@@ -236,15 +230,6 @@
     <t>O site e o banco de dados serão armazenados na nuvem (AWS) para uma maior acessibilidade e segurança de dados.</t>
   </si>
   <si>
-    <t>A aplicação, será feita em Kotlin, Python e Java. (especificar os programas e o que fazem)</t>
-  </si>
-  <si>
-    <t>Página onde poderá ser visto, em gráficos, a utilização dos componentes de hardware e software, assim fazendo o acompanhamento da monitoração(Dashboard). (especificar e quebrar em varios reqs)</t>
-  </si>
-  <si>
-    <t>Programa de suporte externo conectado diretamente ao site.</t>
-  </si>
-  <si>
     <t>Inserção de dados no banco</t>
   </si>
   <si>
@@ -257,58 +242,91 @@
     <t>Aplicação Kotlin</t>
   </si>
   <si>
-    <t>Captura os dados (especificar), e insere no banco da dados, tabela (tal)</t>
-  </si>
-  <si>
-    <t>Tela onde o usuário digita seu e-mail e senha, da acesso ao painel de gráficos...</t>
-  </si>
-  <si>
     <t>Aplicação Python</t>
   </si>
   <si>
-    <t>Tela para que o usuário possa realizar o cadastro dos demais usuários que terão controle hierárquico menor no uso do aplicativo.(conectado a API)</t>
-  </si>
-  <si>
-    <t>Tela para que o usuário possa realizar o cadastro da empresa e do usuário ADM. (conectado a API)</t>
-  </si>
-  <si>
     <t>Plotação de gráficos</t>
   </si>
   <si>
-    <t>Gráficos exibidos na dashboard em porcentagem de uso de CPU, uso de memória RAM, uso de REDE e uso de Disco.</t>
-  </si>
-  <si>
     <t>Exportação dos dados pro gráfico</t>
   </si>
   <si>
-    <t>Os dados são transportados do banco para os gráficos da dashboard através do NodeJS.</t>
-  </si>
-  <si>
-    <t>O banco armazena as informações da empresa, funcionários e servidores rastreados. (através de)</t>
-  </si>
-  <si>
-    <t>O banco fornece os dados de hardware para serem enviados para a dashboard.(através de)</t>
-  </si>
-  <si>
     <t>Página contendo a logo e frase de efeito da empresa, sessão explicativa do projeto TEST, sessão de objetivos e conhecimentos gerais da empresa, sessão de apresentação da equipe, sessão fale conosco.</t>
   </si>
   <si>
     <t>Menu de navegação superior com link para home/cadastro/login/contato/FAQ, Rolagem vertical, e footer com links do site, informações de contato e social media.(devem estar presentes em todas as páginas do site.)</t>
   </si>
   <si>
-    <t>revisado</t>
-  </si>
-  <si>
     <t>Tratamento de dados</t>
   </si>
   <si>
-    <t>R  ou banco de dados</t>
-  </si>
-  <si>
     <t>Extração dos dados cadastrados</t>
   </si>
   <si>
-    <t>API em NodeJS que captura os dados das telas de cadastro e os envia ao banco.</t>
+    <t>API em NodeJS que captura os dados das telas de cadastro (empresa e funcionario) e os envia ao banco.</t>
+  </si>
+  <si>
+    <t>Tela que solicita e-mail e senha do usuário e dependendo da hierarquia cadastrada da acesso ao painel de gráficos (hierarquia baixa) e da acesso ao controle de cadastro de funcionários(visualizar,cadastrar, editar e excluir.)</t>
+  </si>
+  <si>
+    <t>Tela para que o usuário possa realizar o cadastro dos demais usuários que terão controle hierárquico menor no uso do aplicativo.(conectado a API NodeJS)</t>
+  </si>
+  <si>
+    <t>Tela para que o usuário possa realizar o cadastro da empresa e do usuário ADM. (conectado a API NodeJS)</t>
+  </si>
+  <si>
+    <t>Gráficos exibidos na dashboard em porcentagem de uso de CPU, uso de memória RAM em Gigabytes, uso de REDE em Megabytes e uso de Disco em Gigabytes.</t>
+  </si>
+  <si>
+    <t>Página onde poderá ser visto, em gráficos, a utilização dos componentes de hardware e software, assim fazendo o acompanhamento da monitoramento (Dashboard).</t>
+  </si>
+  <si>
+    <t>Os dados são transportados do banco MySQL para os gráficos da dashboard através do NodeJS.</t>
+  </si>
+  <si>
+    <t>revisado por aeris e brudney</t>
+  </si>
+  <si>
+    <t>Nesta tela, o usuário (hierarquia alta) poderá ter acesso as informações cadastradas de cada funcionário, além de poder visualizar,cadastrar, editar e excluir, se necessário.</t>
+  </si>
+  <si>
+    <t>Página mostrando as principais dúvidas e suas resoluções, onde também é possível fazer solicitações de suporte ( conexão Helpdesk) à nossa empresa.</t>
+  </si>
+  <si>
+    <t>Conexão ao programa de suporte externo(helpdesk) conectado diretamente a tela de ajuda.</t>
+  </si>
+  <si>
+    <t>Revisado por aeris</t>
+  </si>
+  <si>
+    <t>O banco armazena as informações da empresa, funcionários e servidores rastreados. (através de NodeJS)</t>
+  </si>
+  <si>
+    <t>O banco fornece os dados de hardware para serem enviados para a dashboard.(através de NodeJS)</t>
+  </si>
+  <si>
+    <t>A aplicação, será feita em Kotlin, Python e Java.</t>
+  </si>
+  <si>
+    <t>Captura os dados de IP (pra confirmação), Rede(download e upload) em Mega com data e hora, e insere no banco da dados na tabela 'Dados capturados' .</t>
+  </si>
+  <si>
+    <t>Captura os dados de IP(para inserção na tabela 'Servidor'), Disco em Gigabytes, Processador em porcentagem e memória RAM em Megabytes, e insere no banco da dados na tabela 'Dados capturados'</t>
+  </si>
+  <si>
+    <t>O tratamento será feito em R e no MySQL</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Cruzamento de informações</t>
+  </si>
+  <si>
+    <t>Processador e REDE - visualizar como o alto tráfego na REDE afeta na CPU.</t>
+  </si>
+  <si>
+    <t>Importa o CSV da tabela 'RAW' do MySQL, excluindo valores nulos, transformando bytes em Mega e/ou Giga, realizar cruzamento de informações e gerar um gráfico baseado nisso.</t>
   </si>
 </sst>
 </file>
@@ -388,13 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -438,7 +456,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -461,11 +478,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -789,18 +812,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAACF98-1C66-4789-BA04-529D16BEA6E3}">
-  <dimension ref="A2:J41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="71" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" customWidth="1"/>
     <col min="5" max="5" width="100.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" customWidth="1"/>
@@ -809,15 +832,16 @@
     <col min="10" max="10" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>31</v>
+    <row r="1" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -829,419 +853,439 @@
         <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="3" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="10">
+      <c r="A3" s="13"/>
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="6">
+        <v>5</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="7">
+      <c r="E4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="6">
+        <v>8</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="6">
+        <v>8</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="6">
+        <v>8</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="7">
-        <v>8</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="7">
-        <v>8</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="7">
-        <v>8</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
-        <v>4</v>
-      </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="7">
+        <v>76</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="6">
         <v>8</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
-        <v>5</v>
-      </c>
-      <c r="C8" s="8"/>
+      <c r="J7" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7"/>
       <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="E8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="6">
         <v>13</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="8"/>
+      <c r="J8" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7"/>
       <c r="D9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="F9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="6">
         <v>8</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>48</v>
+      <c r="J9" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="9">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7"/>
       <c r="D10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="F10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="6">
         <v>13</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>48</v>
+      <c r="J10" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
-        <v>6</v>
-      </c>
-      <c r="C11" s="8"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="9">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7"/>
       <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="6">
+        <v>8</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="7">
-        <v>8</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
-        <v>7</v>
-      </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="H12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="6">
         <v>3</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="10">
-        <v>8</v>
-      </c>
-      <c r="C13" s="8"/>
+      <c r="J12" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="E13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="6">
         <v>3</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
-        <v>9</v>
-      </c>
-      <c r="C14" s="8"/>
+      <c r="J13" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="6">
+        <v>8</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="9">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="G15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="6">
         <v>8</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10">
-        <v>10</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="7">
-        <v>8</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="10">
-        <v>11</v>
-      </c>
-      <c r="C16" s="8"/>
+      <c r="J15" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="9">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7"/>
       <c r="D16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="6">
+        <v>3</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="9">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="10">
-        <v>12</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="7">
+        <v>72</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="6">
         <v>3</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1250,7 +1294,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1259,12 +1303,15 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>0</v>
@@ -1276,395 +1323,502 @@
         <v>2</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="J20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="6" t="s">
+    </row>
+    <row r="21" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="9">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="6">
+        <v>13</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="9">
+        <v>17</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="6">
+        <v>8</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="9">
+        <v>18</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="6">
+        <v>8</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="9">
+        <v>19</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="6">
+        <v>13</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="9">
+        <v>20</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="6">
+        <v>13</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="9">
+        <v>21</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="6">
+        <v>8</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="9">
+        <v>22</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="6">
+        <v>8</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="9">
+        <v>23</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="6">
+        <v>8</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="9">
+        <v>24</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="6">
+        <v>8</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="9">
+        <v>25</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="6">
+        <v>5</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="9">
+        <v>26</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" s="6">
+        <v>13</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="9">
+        <v>27</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="6">
+        <v>5</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="9">
+        <v>28</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="6">
+        <v>8</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="9">
+        <v>29</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" s="6">
+        <v>13</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="9">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="10">
-        <v>13</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="7">
-        <v>13</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="10">
-        <v>14</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="7">
+      <c r="I35" s="6">
         <v>8</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="10">
-        <v>15</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" s="7">
-        <v>13</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="10">
-        <v>16</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="7">
+      <c r="J35" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="9">
+        <v>31</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="6">
         <v>8</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="10">
-        <v>17</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I29" s="7">
-        <v>8</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="10">
-        <v>18</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" s="7">
-        <v>5</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="10">
-        <v>19</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" s="7">
-        <v>13</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="10">
-        <v>20</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I32" s="7">
-        <v>5</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="10">
-        <v>21</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I33" s="7">
-        <v>8</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="10">
-        <v>22</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="10">
-        <v>23</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
+      <c r="J36" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1674,14 +1828,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="58bd19be-68b1-440c-82af-6d4de24fec6c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003236BA383373F9498A6F9C22979A1745" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0bf3bdad6f269cdb0c97dea15d0c6482">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="58bd19be-68b1-440c-82af-6d4de24fec6c" xmlns:ns4="3ffc9a63-5890-437d-bab6-67d84705b086" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99d51bb674e47819d402eb0a523b7d3f" ns3:_="" ns4:_="">
     <xsd:import namespace="58bd19be-68b1-440c-82af-6d4de24fec6c"/>
@@ -1896,6 +2042,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="58bd19be-68b1-440c-82af-6d4de24fec6c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1906,23 +2060,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCF05926-E130-461A-A1C5-9C974146D11D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3ffc9a63-5890-437d-bab6-67d84705b086"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="58bd19be-68b1-440c-82af-6d4de24fec6c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C33E66-45E6-4074-8D53-095A0939F250}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1941,6 +2078,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCF05926-E130-461A-A1C5-9C974146D11D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3ffc9a63-5890-437d-bab6-67d84705b086"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="58bd19be-68b1-440c-82af-6d4de24fec6c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD4BB65A-7ADA-4649-93F2-A6878AA75E80}">
   <ds:schemaRefs>

--- a/Documentação/Documentos/backlog.xlsx
+++ b/Documentação/Documentos/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbiza\OneDrive\Área de Trabalho\TEST\site-institucional\Documentação\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B0E5F0-C40F-45D0-A77D-2FDF5F7AB9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CFFD79-7FD8-4EA5-BBB7-9C1E1D591AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{20733E76-3990-4A04-89D2-BEA7BDE5C0C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="114">
   <si>
     <t>Requisitos</t>
   </si>
@@ -212,15 +212,6 @@
     <t>LUX002 / UST001</t>
   </si>
   <si>
-    <t xml:space="preserve"> UST010</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LUX001</t>
-  </si>
-  <si>
-    <t>UST008</t>
-  </si>
-  <si>
     <t>UST006</t>
   </si>
   <si>
@@ -269,9 +260,6 @@
     <t>Tela que solicita e-mail e senha do usuário e dependendo da hierarquia cadastrada da acesso ao painel de gráficos (hierarquia baixa) e da acesso ao controle de cadastro de funcionários(visualizar,cadastrar, editar e excluir.)</t>
   </si>
   <si>
-    <t>Tela para que o usuário possa realizar o cadastro dos demais usuários que terão controle hierárquico menor no uso do aplicativo.(conectado a API NodeJS)</t>
-  </si>
-  <si>
     <t>Tela para que o usuário possa realizar o cadastro da empresa e do usuário ADM. (conectado a API NodeJS)</t>
   </si>
   <si>
@@ -287,15 +275,9 @@
     <t>revisado por aeris e brudney</t>
   </si>
   <si>
-    <t>Nesta tela, o usuário (hierarquia alta) poderá ter acesso as informações cadastradas de cada funcionário, além de poder visualizar,cadastrar, editar e excluir, se necessário.</t>
-  </si>
-  <si>
     <t>Página mostrando as principais dúvidas e suas resoluções, onde também é possível fazer solicitações de suporte ( conexão Helpdesk) à nossa empresa.</t>
   </si>
   <si>
-    <t>Conexão ao programa de suporte externo(helpdesk) conectado diretamente a tela de ajuda.</t>
-  </si>
-  <si>
     <t>Revisado por aeris</t>
   </si>
   <si>
@@ -305,9 +287,6 @@
     <t>O banco fornece os dados de hardware para serem enviados para a dashboard.(através de NodeJS)</t>
   </si>
   <si>
-    <t>A aplicação, será feita em Kotlin, Python e Java.</t>
-  </si>
-  <si>
     <t>Captura os dados de IP (pra confirmação), Rede(download e upload) em Mega com data e hora, e insere no banco da dados na tabela 'Dados capturados' .</t>
   </si>
   <si>
@@ -323,10 +302,82 @@
     <t>Cruzamento de informações</t>
   </si>
   <si>
-    <t>Processador e REDE - visualizar como o alto tráfego na REDE afeta na CPU.</t>
-  </si>
-  <si>
     <t>Importa o CSV da tabela 'RAW' do MySQL, excluindo valores nulos, transformando bytes em Mega e/ou Giga, realizar cruzamento de informações e gerar um gráfico baseado nisso.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>sem referência</t>
+  </si>
+  <si>
+    <t>PPS002</t>
+  </si>
+  <si>
+    <t>UST009</t>
+  </si>
+  <si>
+    <t>UST008 / PPS001</t>
+  </si>
+  <si>
+    <t>UST003</t>
+  </si>
+  <si>
+    <t>UST004</t>
+  </si>
+  <si>
+    <t>UST001 / UST005</t>
+  </si>
+  <si>
+    <t>PPS003 / PPS002</t>
+  </si>
+  <si>
+    <t>Alertas</t>
+  </si>
+  <si>
+    <t>PPS003 / UST002 / UST007 / LUX001</t>
+  </si>
+  <si>
+    <t>Processador e REDE - visualizar como o alto tráfego na REDE afeta no desempenho da CPU.</t>
+  </si>
+  <si>
+    <t>UST003 / UST004</t>
+  </si>
+  <si>
+    <t>UST006 / LUX001 / UST001 / UST005</t>
+  </si>
+  <si>
+    <t>Conexão ao programa de suporte externo(helpdesk) conectado diretamente a tela de ajuda. O sistema utilizado será o Slack, por onde serão enviadas as notificações de alerta do distema e também onde será disponibilizada a comunicação entre os membos cadastrados no sistema da TEST.</t>
+  </si>
+  <si>
+    <t>A aplicação, será feita em Kotlin, Python e Java de forma a ser um executável.</t>
+  </si>
+  <si>
+    <t>Restrições e acessos</t>
+  </si>
+  <si>
+    <t>Hierarquia de cadastros realizada no banco MySQL onde os funcionários tem acesso de visualização e os usuários administradores em acesso de visualização e gerenciamento no cadastro dos funcionários.</t>
+  </si>
+  <si>
+    <t>Nesta tela, o usuário administrador (hierarquia alta) poderá ter acesso as informações cadastradas de cada funcionário, além de poder visualizar,cadastrar, editar e excluir, se necessário.</t>
+  </si>
+  <si>
+    <t>Tela para que o usuário possa realizar o cadastro dos demais usuários que terão controle hierárquico menor no uso do aplicativo de somente visualização.(conectado a API NodeJS)</t>
+  </si>
+  <si>
+    <t>Alertas externos no aplicativo slack(helpdesk) que notifiquem o componente que está fora das métricas estabelecidas de forma sucinta.</t>
+  </si>
+  <si>
+    <t>UST004 / UST001 / UST005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LUX001 / UST010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UST010 </t>
+  </si>
+  <si>
+    <t>PPS002 / UST009 / UST010 / LUX001</t>
   </si>
 </sst>
 </file>
@@ -444,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -465,7 +516,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -812,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAACF98-1C66-4789-BA04-529D16BEA6E3}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="71" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="71" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,8 +884,8 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>82</v>
+      <c r="A2" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>25</v>
@@ -866,16 +916,18 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="9">
+      <c r="A3" s="12"/>
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>9</v>
@@ -894,16 +946,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="9">
+      <c r="A4" s="12"/>
+      <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="D4" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>9</v>
@@ -922,16 +976,18 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="9">
+      <c r="A5" s="12"/>
+      <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="D5" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>9</v>
@@ -950,16 +1006,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="9">
+      <c r="A6" s="12"/>
+      <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>9</v>
@@ -978,16 +1036,18 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="9">
+      <c r="A7" s="12"/>
+      <c r="B7" s="8">
         <v>5</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>9</v>
@@ -1005,17 +1065,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="9">
+    <row r="8" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="8">
         <v>6</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>80</v>
+      <c r="E8" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>9</v>
@@ -1033,17 +1095,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="9">
+    <row r="9" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="8">
         <v>7</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>79</v>
+        <v>66</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>9</v>
@@ -1062,16 +1126,18 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="9">
+      <c r="A10" s="12"/>
+      <c r="B10" s="8">
         <v>8</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="D10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>81</v>
+        <v>67</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>9</v>
@@ -1089,17 +1155,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="9">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7"/>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="8">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>9</v>
@@ -1118,11 +1186,13 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="9">
+      <c r="A12" s="12"/>
+      <c r="B12" s="8">
         <v>10</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1146,16 +1216,18 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="9">
+      <c r="A13" s="12"/>
+      <c r="B13" s="8">
         <v>11</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="D13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>84</v>
+      <c r="E13" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>9</v>
@@ -1174,11 +1246,13 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="9">
+      <c r="A14" s="12"/>
+      <c r="B14" s="8">
         <v>12</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1202,11 +1276,13 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="9">
+      <c r="A15" s="12"/>
+      <c r="B15" s="8">
         <v>13</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="D15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1229,17 +1305,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="9">
+    <row r="16" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="8">
         <v>14</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="D16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>9</v>
@@ -1257,17 +1335,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="9">
+    <row r="17" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="8">
         <v>15</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="D17" s="4" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>9</v>
@@ -1276,25 +1356,46 @@
         <v>32</v>
       </c>
       <c r="H17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="6">
+        <v>8</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="8">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I18" s="6">
         <v>3</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1303,107 +1404,90 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="9">
-        <v>16</v>
-      </c>
-      <c r="C21" s="7" t="s">
+    <row r="22" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="8">
+        <v>17</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="E22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I22" s="6">
         <v>13</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="9">
-        <v>17</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="6">
-        <v>8</v>
-      </c>
       <c r="J22" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="9">
+    <row r="23" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="8">
         <v>18</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="D23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>88</v>
+        <v>61</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>9</v>
@@ -1422,54 +1506,54 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="9">
+      <c r="A24" s="12"/>
+      <c r="B24" s="8">
         <v>19</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="6">
+        <v>8</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="8">
+        <v>20</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="F25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="6">
-        <v>13</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="9">
-        <v>20</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>45</v>
@@ -1481,17 +1565,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="9">
+    <row r="26" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="8">
         <v>21</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="D26" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>90</v>
+        <v>33</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>9</v>
@@ -1500,26 +1586,28 @@
         <v>32</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I26" s="6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="9">
+    <row r="27" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="8">
         <v>22</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="D27" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>91</v>
+        <v>64</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>9</v>
@@ -1537,25 +1625,25 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="9">
+    <row r="28" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="8">
         <v>23</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>58</v>
+      <c r="C28" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>40</v>
@@ -1567,17 +1655,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="9">
+    <row r="29" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="8">
         <v>24</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="D29" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>9</v>
@@ -1595,17 +1685,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="9">
+    <row r="30" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="8">
         <v>25</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="D30" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>9</v>
@@ -1614,28 +1706,28 @@
         <v>44</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I30" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="9">
+    <row r="31" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="8">
         <v>26</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>59</v>
+      <c r="C31" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>9</v>
@@ -1644,142 +1736,148 @@
         <v>44</v>
       </c>
       <c r="H31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="6">
+        <v>5</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="8">
+        <v>27</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I32" s="6">
         <v>13</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="9">
-        <v>27</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="J32" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="8">
+        <v>28</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="6" t="s">
+      <c r="F33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I33" s="6">
         <v>5</v>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="9">
-        <v>28</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="J33" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="8">
+        <v>29</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" s="6">
-        <v>8</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="9">
-        <v>29</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="6">
+        <v>8</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="8">
+        <v>30</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I35" s="6">
         <v>13</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="9">
-        <v>30</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" s="6">
-        <v>8</v>
-      </c>
       <c r="J35" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="9">
+    <row r="36" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="8">
         <v>31</v>
       </c>
-      <c r="C36" s="8"/>
+      <c r="C36" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="D36" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>95</v>
+        <v>86</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>9</v>
@@ -1797,28 +1895,96 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
+    <row r="37" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="8">
+        <v>32</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="6">
+        <v>8</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="8">
+        <v>33</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="6">
+        <v>8</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="10" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1828,6 +1994,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="58bd19be-68b1-440c-82af-6d4de24fec6c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003236BA383373F9498A6F9C22979A1745" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0bf3bdad6f269cdb0c97dea15d0c6482">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="58bd19be-68b1-440c-82af-6d4de24fec6c" xmlns:ns4="3ffc9a63-5890-437d-bab6-67d84705b086" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99d51bb674e47819d402eb0a523b7d3f" ns3:_="" ns4:_="">
     <xsd:import namespace="58bd19be-68b1-440c-82af-6d4de24fec6c"/>
@@ -2042,14 +2216,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="58bd19be-68b1-440c-82af-6d4de24fec6c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2060,6 +2226,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCF05926-E130-461A-A1C5-9C974146D11D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3ffc9a63-5890-437d-bab6-67d84705b086"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="58bd19be-68b1-440c-82af-6d4de24fec6c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C33E66-45E6-4074-8D53-095A0939F250}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2078,23 +2261,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCF05926-E130-461A-A1C5-9C974146D11D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3ffc9a63-5890-437d-bab6-67d84705b086"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="58bd19be-68b1-440c-82af-6d4de24fec6c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD4BB65A-7ADA-4649-93F2-A6878AA75E80}">
   <ds:schemaRefs>

--- a/Documentação/Documentos/backlog.xlsx
+++ b/Documentação/Documentos/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbiza\OneDrive\Área de Trabalho\TEST\site-institucional\Documentação\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CFFD79-7FD8-4EA5-BBB7-9C1E1D591AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458E63F8-1005-4705-B9BD-0831E59A303E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{20733E76-3990-4A04-89D2-BEA7BDE5C0C7}"/>
   </bookViews>
@@ -864,7 +864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAACF98-1C66-4789-BA04-529D16BEA6E3}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="71" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="71" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1994,14 +1994,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="58bd19be-68b1-440c-82af-6d4de24fec6c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003236BA383373F9498A6F9C22979A1745" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0bf3bdad6f269cdb0c97dea15d0c6482">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="58bd19be-68b1-440c-82af-6d4de24fec6c" xmlns:ns4="3ffc9a63-5890-437d-bab6-67d84705b086" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99d51bb674e47819d402eb0a523b7d3f" ns3:_="" ns4:_="">
     <xsd:import namespace="58bd19be-68b1-440c-82af-6d4de24fec6c"/>
@@ -2216,6 +2208,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="58bd19be-68b1-440c-82af-6d4de24fec6c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2226,23 +2226,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCF05926-E130-461A-A1C5-9C974146D11D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3ffc9a63-5890-437d-bab6-67d84705b086"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="58bd19be-68b1-440c-82af-6d4de24fec6c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C33E66-45E6-4074-8D53-095A0939F250}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2261,6 +2244,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCF05926-E130-461A-A1C5-9C974146D11D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3ffc9a63-5890-437d-bab6-67d84705b086"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="58bd19be-68b1-440c-82af-6d4de24fec6c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD4BB65A-7ADA-4649-93F2-A6878AA75E80}">
   <ds:schemaRefs>

--- a/Documentação/Documentos/backlog.xlsx
+++ b/Documentação/Documentos/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbiza\OneDrive\Área de Trabalho\TEST\site-institucional\Documentação\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458E63F8-1005-4705-B9BD-0831E59A303E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991466E9-A626-4B11-81E7-6E180ED84F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{20733E76-3990-4A04-89D2-BEA7BDE5C0C7}"/>
   </bookViews>
@@ -272,9 +272,6 @@
     <t>Os dados são transportados do banco MySQL para os gráficos da dashboard através do NodeJS.</t>
   </si>
   <si>
-    <t>revisado por aeris e brudney</t>
-  </si>
-  <si>
     <t>Página mostrando as principais dúvidas e suas resoluções, onde também é possível fazer solicitações de suporte ( conexão Helpdesk) à nossa empresa.</t>
   </si>
   <si>
@@ -378,6 +375,9 @@
   </si>
   <si>
     <t>PPS002 / UST009 / UST010 / LUX001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revisado por aeris </t>
   </si>
 </sst>
 </file>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAACF98-1C66-4789-BA04-529D16BEA6E3}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="71" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +885,7 @@
     <row r="1" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>25</v>
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>4</v>
@@ -951,7 +951,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>42</v>
@@ -981,7 +981,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>71</v>
@@ -1011,13 +1011,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>9</v>
@@ -1041,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>3</v>
@@ -1071,7 +1071,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>5</v>
@@ -1101,7 +1101,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>66</v>
@@ -1131,7 +1131,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>67</v>
@@ -1161,13 +1161,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>9</v>
@@ -1191,7 +1191,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>7</v>
@@ -1221,13 +1221,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>9</v>
@@ -1251,7 +1251,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>18</v>
@@ -1281,7 +1281,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>19</v>
@@ -1317,7 +1317,7 @@
         <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>9</v>
@@ -1341,13 +1341,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>9</v>
@@ -1371,7 +1371,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>39</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="21" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>25</v>
@@ -1481,13 +1481,13 @@
         <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>9</v>
@@ -1511,13 +1511,13 @@
         <v>19</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>9</v>
@@ -1577,7 +1577,7 @@
         <v>33</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>9</v>
@@ -1601,13 +1601,13 @@
         <v>22</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>9</v>
@@ -1631,13 +1631,13 @@
         <v>23</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>9</v>
@@ -1661,7 +1661,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>12</v>
@@ -1721,7 +1721,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>15</v>
@@ -1751,7 +1751,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>34</v>
@@ -1781,7 +1781,7 @@
         <v>28</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>16</v>
@@ -1841,13 +1841,13 @@
         <v>30</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>9</v>
@@ -1871,13 +1871,13 @@
         <v>31</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>9</v>
@@ -1901,13 +1901,13 @@
         <v>32</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>9</v>
@@ -1931,13 +1931,13 @@
         <v>33</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>9</v>
@@ -1981,10 +1981,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1994,6 +1994,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="58bd19be-68b1-440c-82af-6d4de24fec6c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003236BA383373F9498A6F9C22979A1745" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0bf3bdad6f269cdb0c97dea15d0c6482">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="58bd19be-68b1-440c-82af-6d4de24fec6c" xmlns:ns4="3ffc9a63-5890-437d-bab6-67d84705b086" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99d51bb674e47819d402eb0a523b7d3f" ns3:_="" ns4:_="">
     <xsd:import namespace="58bd19be-68b1-440c-82af-6d4de24fec6c"/>
@@ -2208,14 +2216,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="58bd19be-68b1-440c-82af-6d4de24fec6c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2226,6 +2226,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCF05926-E130-461A-A1C5-9C974146D11D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3ffc9a63-5890-437d-bab6-67d84705b086"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="58bd19be-68b1-440c-82af-6d4de24fec6c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C33E66-45E6-4074-8D53-095A0939F250}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2244,23 +2261,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCF05926-E130-461A-A1C5-9C974146D11D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3ffc9a63-5890-437d-bab6-67d84705b086"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="58bd19be-68b1-440c-82af-6d4de24fec6c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD4BB65A-7ADA-4649-93F2-A6878AA75E80}">
   <ds:schemaRefs>

--- a/Documentação/Documentos/backlog.xlsx
+++ b/Documentação/Documentos/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbiza\OneDrive\Área de Trabalho\TEST\site-institucional\Documentação\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991466E9-A626-4B11-81E7-6E180ED84F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDCBC68-D4B6-49E0-9747-B547DE325750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{20733E76-3990-4A04-89D2-BEA7BDE5C0C7}"/>
   </bookViews>
@@ -353,9 +353,6 @@
     <t>Restrições e acessos</t>
   </si>
   <si>
-    <t>Hierarquia de cadastros realizada no banco MySQL onde os funcionários tem acesso de visualização e os usuários administradores em acesso de visualização e gerenciamento no cadastro dos funcionários.</t>
-  </si>
-  <si>
     <t>Nesta tela, o usuário administrador (hierarquia alta) poderá ter acesso as informações cadastradas de cada funcionário, além de poder visualizar,cadastrar, editar e excluir, se necessário.</t>
   </si>
   <si>
@@ -378,6 +375,9 @@
   </si>
   <si>
     <t xml:space="preserve">revisado por aeris </t>
+  </si>
+  <si>
+    <t>Hierarquia de cadastros definida no banco MySQL, onde os funcionários tem acesso de visualização e os usuários administradores em acesso de visualização e gerenciamento no cadastro dos funcionários.</t>
   </si>
 </sst>
 </file>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAACF98-1C66-4789-BA04-529D16BEA6E3}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="81" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +885,7 @@
     <row r="1" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>25</v>
@@ -1017,7 +1017,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>9</v>
@@ -1101,7 +1101,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>66</v>
@@ -1167,7 +1167,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>9</v>
@@ -1305,7 +1305,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="8">
         <v>14</v>
@@ -1347,7 +1347,7 @@
         <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>9</v>
@@ -1613,7 +1613,7 @@
         <v>9</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>40</v>
@@ -1643,7 +1643,7 @@
         <v>9</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>40</v>
@@ -1661,7 +1661,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>12</v>
@@ -1751,7 +1751,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>34</v>
@@ -1865,7 +1865,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="8">
         <v>31</v>
@@ -1931,13 +1931,13 @@
         <v>33</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>9</v>
@@ -1994,14 +1994,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="58bd19be-68b1-440c-82af-6d4de24fec6c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003236BA383373F9498A6F9C22979A1745" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0bf3bdad6f269cdb0c97dea15d0c6482">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="58bd19be-68b1-440c-82af-6d4de24fec6c" xmlns:ns4="3ffc9a63-5890-437d-bab6-67d84705b086" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99d51bb674e47819d402eb0a523b7d3f" ns3:_="" ns4:_="">
     <xsd:import namespace="58bd19be-68b1-440c-82af-6d4de24fec6c"/>
@@ -2216,6 +2208,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="58bd19be-68b1-440c-82af-6d4de24fec6c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2226,23 +2226,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCF05926-E130-461A-A1C5-9C974146D11D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3ffc9a63-5890-437d-bab6-67d84705b086"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="58bd19be-68b1-440c-82af-6d4de24fec6c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C33E66-45E6-4074-8D53-095A0939F250}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2261,6 +2244,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCF05926-E130-461A-A1C5-9C974146D11D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3ffc9a63-5890-437d-bab6-67d84705b086"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="58bd19be-68b1-440c-82af-6d4de24fec6c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD4BB65A-7ADA-4649-93F2-A6878AA75E80}">
   <ds:schemaRefs>
